--- a/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2698,7 +2698,7 @@
 </t>
   </si>
   <si>
-    <t>systemeGeodesique (CoordonneeGeographique) : Permet de signaler si les informations des coordonnées géographiques sont issues d'un mode de production qui assure un certain niveau de fiabilité</t>
+    <t>coordonneesFiables (CoordonneeGeographique) : Permet de signaler si les informations des coordonnées géographiques sont issues d'un mode de production qui assure un certain niveau de fiabilité</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour signaler si les informations des coordonnées géographiques sont issues d'un mode de production qui assure un certain niveau de fiabilité</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -532,7 +532,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource</t>
+    <t>regionSource : JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
     <t>Location.implicitRules</t>
@@ -658,7 +658,7 @@
     <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
   </si>
   <si>
-    <t>statut</t>
+    <t>statut : JDV-J224-StatutLieu-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-commune-cog</t>
@@ -677,7 +677,7 @@
     <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
-    <t>communeCog</t>
+    <t>communeCog : JDV-J124-Commune</t>
   </si>
   <si>
     <t>Location.extension:ror-location-equipment</t>
@@ -718,7 +718,7 @@
     <t>equipmentType</t>
   </si>
   <si>
-    <t>typeEquipement</t>
+    <t>typeEquipement : JDV-J18-EquipementSpecifique-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-equipment.extension:equipmentType.id</t>
@@ -851,7 +851,7 @@
     <t>equipmentFeature</t>
   </si>
   <si>
-    <t>typeCaracteristique</t>
+    <t>typeCaracteristique : JDV-J228-TypeCaracteristiqueEquipement-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-equipment-limit.extension:equipmentFeature.id</t>
@@ -934,7 +934,7 @@
     <t>residentialType</t>
   </si>
   <si>
-    <t>typeHabitation</t>
+    <t>typeHabitation : JDV-J32-TypeHabitation-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-residential-capacity.extension:residentialType.id</t>
@@ -1016,7 +1016,7 @@
     <t>capacityType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.natureCapacite</t>
+    <t>CapaciteAccueilOperationnelle.natureCapacite : JDV-J187-NatureCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:capacityType.id</t>
@@ -1040,7 +1040,7 @@
     <t>capacityStatus</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.statutCapacite</t>
+    <t>CapaciteAccueilOperationnelle.statutCapacite : JDV-J188-TypeStatutCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:capacityStatus.id</t>
@@ -1064,7 +1064,7 @@
     <t>temporalityCapacity</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.temporaliteCapacite</t>
+    <t>CapaciteAccueilOperationnelle.temporaliteCapacite : JDV-J189-TemporaliteCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:temporalityCapacity.id</t>
@@ -1109,7 +1109,7 @@
     <t>capacitySourceType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeSourceCapacite</t>
+    <t>CapaciteAccueilOperationnelle.typeSourceCapacite : JDV-J193-TypeSourceCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:capacitySourceType.id</t>
@@ -1133,7 +1133,7 @@
     <t>genderCapacityAvailable</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo</t>
+    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo : JDV-J190-GenreCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:genderCapacityAvailable.id</t>
@@ -1182,7 +1182,7 @@
     <t>capacityClosingType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite</t>
+    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite : JDV-J191-TypeFermetureCapacite-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:capacityClosingType.id</t>
@@ -1206,7 +1206,7 @@
     <t>additionalBedType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire</t>
+    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire : JDV-J192-TypeLitSupplementaire-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:additionalBedType.id</t>
@@ -1230,7 +1230,7 @@
     <t>crisisType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeCrise</t>
+    <t>CapaciteAccueilOperationnelle.typeCrise : JDV-J194-TypeCrise-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:crisisType.id</t>
@@ -1254,7 +1254,7 @@
     <t>temporaryAssignement</t>
   </si>
   <si>
-    <t>CapacitePriseCharge.affectationTemporaire</t>
+    <t>CapacitePriseCharge.affectationTemporaire : JDV-J195-AffectationTemporaire-ROR</t>
   </si>
   <si>
     <t>Location.extension:ror-location-supported-capacity.extension:temporaryAssignement.id</t>
@@ -1940,7 +1940,7 @@
     <t>.code</t>
   </si>
   <si>
-    <t>fonctionLieu</t>
+    <t>fonctionLieu : JDV-J198-FonctionLieu-ROR</t>
   </si>
   <si>
     <t>Location.telecom</t>
@@ -1988,7 +1988,7 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal</t>
+    <t>canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>Location.telecom.extension:ror-telecom-usage</t>
@@ -2026,7 +2026,7 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>niveauConfidentialite</t>
+    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>Location.telecom.system</t>
@@ -2376,7 +2376,7 @@
     <t>ADXP[partType=STTYP]</t>
   </si>
   <si>
-    <t>typeVoie</t>
+    <t>typeVoie : JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameType.id</t>
@@ -2704,7 +2704,7 @@
     <t>Extension créée dans le cadre du ROR pour signaler si les informations des coordonnées géographiques sont issues d'un mode de production qui assure un certain niveau de fiabilité</t>
   </si>
   <si>
-    <t>systemeGeodesique</t>
+    <t>coordonneesFiables</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -3267,7 +3267,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="88.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
